--- a/results/I3_N5_M3_T15_C200_DepCentral_s0_P1_res.xlsx
+++ b/results/I3_N5_M3_T15_C200_DepCentral_s0_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>872.9777085871756</v>
+        <v>314.3977085871632</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01099991798400879</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.855013835343009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.855013835343009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>512.7800000000124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>341.8</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,50 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -667,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -700,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -733,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -846,7 +802,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -857,7 +813,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -926,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>7.544884805799947</v>
       </c>
     </row>
     <row r="5">
@@ -934,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>12.37739353073907</v>
       </c>
     </row>
     <row r="6">
@@ -942,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.37739353073907</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -950,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.815506319679688</v>
+        <v>4.360391125479635</v>
       </c>
     </row>
     <row r="8">
@@ -958,7 +914,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -966,7 +922,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>14.49989205841819</v>
       </c>
     </row>
     <row r="10">
@@ -974,7 +930,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>14.79834375740628</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -988,7 +944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1016,62 +972,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1173,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>235.8150000000012</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8">
@@ -1184,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>247.3550000000012</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9">
@@ -1195,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>249.1850000000013</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10">
@@ -1206,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>254.9300000000012</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11">
@@ -1217,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>251.0600000000013</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12">
@@ -1228,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>167.6400000000006</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
@@ -1239,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>171.2250000000006</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14">
@@ -1250,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>173.3450000000006</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15">
@@ -1261,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>178.0200000000006</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16">
@@ -1272,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>175.2100000000006</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17">
@@ -1283,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>99.54499999999936</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18">
@@ -1294,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>92.51499999999935</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
@@ -1305,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>100.0699999999993</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20">
@@ -1316,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>90.09499999999935</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -1327,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>102.7799999999993</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22">
@@ -1338,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>208.06</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
@@ -1349,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>189.4349999999993</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
@@ -1360,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>206.715</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25">
@@ -1371,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>193.8399999999993</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26">
@@ -1382,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>203.27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27">
@@ -1393,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>61.37999999999978</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
@@ -1404,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>61.35999999999979</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
@@ -1415,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>65.61999999999978</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30">
@@ -1426,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>66.05999999999977</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31">
@@ -1437,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>64.25999999999978</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
@@ -1448,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>235.8150000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1459,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>247.3550000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1470,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>249.1850000000013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1481,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>254.9300000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1492,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>251.0600000000013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1503,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38">
@@ -1514,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39">
@@ -1525,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40">
@@ -1536,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41">
@@ -1547,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42">
@@ -1558,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>208.06</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43">
@@ -1569,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>189.4349999999993</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44">
@@ -1580,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>206.715</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45">
@@ -1591,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>193.8399999999993</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46">
@@ -1602,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>203.27</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1649,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>35.81500000000122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1660,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>47.35500000000124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1671,7 +1571,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>49.18500000000125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1682,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>54.93000000000123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1693,7 +1593,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>51.06000000000125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1759,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>8.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1781,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1803,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>3.27</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1905,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5.14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1916,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>12.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1927,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1938,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>13.25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1949,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>11.68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -2070,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>15.84</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -2081,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>25.985</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -2092,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>25.86</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
@@ -2103,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>25.8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
@@ -2114,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>26.155</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2128,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2153,94 +2053,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
